--- a/util/spreadsheets/z.xlsx
+++ b/util/spreadsheets/z.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F3118F-3090-444D-9FBB-10FF77D82B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08E83E6-3129-4D62-969E-A54D5A0DEFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="1230" windowWidth="16170" windowHeight="26985" firstSheet="1" activeTab="1" xr2:uid="{0D95D1F5-6087-44E2-B685-D1294DCFC287}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="2088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="2196">
   <si>
     <t>[8/29/2025 11:58:45 AM][QwickAnalyticsExcelAddIn.Services.UserService.Login] Begin: nsproul</t>
   </si>
@@ -2869,9 +2869,6 @@
     <t>[8/29/2025 4:03:56 PM][QwickAnalyticsExcelAddIn.Ribbon1.btnRefresh_Click] End</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>[9/1/2025 5:55:08 PM][QwickAnalyticsExcelAddIn.ThisAddIn.ws_Change] Begin</t>
   </si>
   <si>
@@ -4042,9 +4039,6 @@
     <t>[9/1/2025 6:23:07 PM][QwickAnalyticsExcelAddIn.ThisAddIn.GetSettingsWorksheet] End</t>
   </si>
   <si>
-    <t>[{"WorksheetID":"2f3b953c-3490-40ce-8612-ecce3bb0a30f","WorkbookName":"z.xlsx","RSSDIDColumn":"C","CompanyTypeColumn":"B","FieldNameRow":"1","FieldTypeRow":"3","DDIDRow":"2","PeriodRow":"4","DurationRow":"5","DataRowFrom":6,"DataRowTo":7,"DataColFrom":1,"DataColTo":12,"PivotDataDisplay":0,"RSSDIDRow":null,"CompanyNameRow":null,"CompanyTypeRow":null,"FieldNameColumn":null,"DDIDColumn":null,"FieldTypeColumn":null}]</t>
-  </si>
-  <si>
     <t>[9/1/2025 6:23:07 PM][QwickAnalyticsExcelAddIn.ThisAddIn.UpdateDataTablesSettings] End: [{"WorksheetID":"2f3b953c-3490-40ce-8612-ecce3bb0a30f","WorkbookName":"z.xlsx","RSSDIDColumn":"C","CompanyTypeColumn":"B","FieldNameRow":"1","FieldTypeRow":"3","DDIDRow":"2","PeriodRow":"4","DurationRow":"5","DataRowFrom":6,"DataRowTo":7,"DataColFrom":1,"DataColTo":12,"PivotDataDisplay":0,"RSSDIDRow":null,"CompanyNameRow":null,"CompanyTypeRow":null,"FieldNameColumn":null,"DDIDColumn":null,"FieldTypeColumn":null}]</t>
   </si>
   <si>
@@ -4420,9 +4414,6 @@
     <t>[9/1/2025 6:24:16 PM][QwickAnalyticsExcelAddIn.Ribbon1.btnRefresh_Click] End</t>
   </si>
   <si>
-    <t>[9/1/2025 6:25:20 PM][QwickAnalyticsExcelAddIn.Ribbon1.btnRefresh_Click] Begin</t>
-  </si>
-  <si>
     <t>[9/1/2025 6:25:20 PM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastCol] Begin: Sheet1</t>
   </si>
   <si>
@@ -4948,12 +4939,6 @@
     <t>[9/1/2025 6:29:02 PM][QwickAnalyticsExcelAddIn.ThisAddIn.GetActiveDataTable] End</t>
   </si>
   <si>
-    <t>[9/1/2025 6:29:02 PM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastCol] End: 12</t>
-  </si>
-  <si>
-    <t>[9/1/2025 6:29:02 PM][QwickAnalyticsExcelAddIn.Services.DataDisplayService.RefreshWorksheet] Begin: Sheet1</t>
-  </si>
-  <si>
     <t>[9/1/2025 6:29:02 PM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastRow] Begin: Sheet1</t>
   </si>
   <si>
@@ -5152,30 +5137,18 @@
     <t>[9/1/2025 6:29:11 PM][QwickAnalyticsExcelAddIn.ThisAddIn.UpdateDataTablesSettings] End: [{"WorksheetID":"2f3b953c-3490-40ce-8612-ecce3bb0a30f","WorkbookName":"z.xlsx","RSSDIDColumn":"C","CompanyTypeColumn":"B","FieldNameRow":"1","FieldTypeRow":"3","DDIDRow":"2","PeriodRow":"4","DurationRow":"5","DataRowFrom":6,"DataRowTo":7,"DataColFrom":1,"DataColTo":12,"PivotDataDisplay":0,"RSSDIDRow":null,"CompanyNameRow":null,"CompanyTypeRow":null,"FieldNameColumn":null,"DDIDColumn":null,"FieldTypeColumn":null}]</t>
   </si>
   <si>
-    <t>[9/1/2025 6:29:11 PM][QwickAnalyticsExcelAddIn.Services.DataDisplayService.WriteData] End</t>
-  </si>
-  <si>
     <t>[9/1/2025 6:29:11 PM][QwickAnalyticsExcelAddIn.Services.DataDisplayService.RefreshWorksheet] End</t>
   </si>
   <si>
     <t>[9/1/2025 6:29:11 PM][QwickAnalyticsExcelAddIn.Ribbon1.btnRefresh_Click] End</t>
   </si>
   <si>
-    <t>[9/1/2025 6:30:22 PM][QwickAnalyticsExcelAddIn.ThisAddIn.ws_Change] Begin</t>
-  </si>
-  <si>
     <t>[9/1/2025 6:30:22 PM][QwickAnalyticsExcelAddIn.ThisAddIn.GetActiveDataTable] Begin: Sheet1</t>
   </si>
   <si>
     <t>[9/1/2025 6:30:22 PM][QwickAnalyticsExcelAddIn.ThisAddIn.GetActiveDataTable] End</t>
   </si>
   <si>
-    <t>[9/1/2025 6:30:22 PM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastRow] Begin: Sheet1</t>
-  </si>
-  <si>
-    <t>[9/1/2025 6:30:23 PM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastRow] End: 7</t>
-  </si>
-  <si>
     <t>[9/1/2025 6:30:23 PM][QwickAnalyticsExcelAddIn.ThisAddIn.ws_Change] End</t>
   </si>
   <si>
@@ -5212,9 +5185,6 @@
     <t>[9/1/2025 6:30:27 PM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastCol] End: 12</t>
   </si>
   <si>
-    <t>[9/1/2025 6:30:27 PM][QwickAnalyticsExcelAddIn.Services.DataDisplayService.RefreshWorksheet] Begin: Sheet1</t>
-  </si>
-  <si>
     <t>[9/1/2025 6:30:27 PM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastRow] Begin: Sheet1</t>
   </si>
   <si>
@@ -5236,12 +5206,6 @@
     <t>[9/1/2025 6:30:28 PM][QwickAnalyticsExcelAddIn.Services.DataDisplayService.GetWorksheetCompanies] Begin: Sheet1</t>
   </si>
   <si>
-    <t>[9/1/2025 6:30:28 PM][QwickAnalyticsExcelAddIn.Services.DataDisplayService.GetWorksheetCompanies] End</t>
-  </si>
-  <si>
-    <t>[9/1/2025 6:30:28 PM][QwickAnalyticsExcelAddIn.Services.DataDisplayService.GetWorksheetFields] Begin: Sheet1</t>
-  </si>
-  <si>
     <t>[9/1/2025 6:30:28 PM][QwickAnalyticsExcelAddIn.Services.QAServices.BankFieldService.GetBankFields] Begin</t>
   </si>
   <si>
@@ -6302,6 +6266,366 @@
   </si>
   <si>
     <t>[9/1/2025 6:33:46 PM][QwickAnalyticsExcelAddIn.Ribbon1.btnRefresh_Click] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:26 AM][QwickAnalyticsExcelAddIn.Services.UserService.Login] Begin: nsproul</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:26 AM][QwickAnalyticsExcelAddIn.Services.UserService.Login] Version 1.130.0</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:27 AM][QwickAnalyticsExcelAddIn.Services.QAServices.OAuth2ClientService.Login] Begin: UserName nsproul</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:27 AM][QwickAnalyticsExcelAddIn.Services.UserService.Login] Invalid login</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:47 AM][QwickAnalyticsExcelAddIn.Services.UserService.Login] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:53 AM][QwickAnalyticsExcelAddIn.Services.UserService.Login] Begin: nsproul</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:53 AM][QwickAnalyticsExcelAddIn.Services.UserService.Login] Version 1.130.0</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:53 AM][QwickAnalyticsExcelAddIn.Services.QAServices.OAuth2ClientService.Login] Begin: UserName nsproul</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:54 AM][QwickAnalyticsExcelAddIn.Services.QAServices.OAuth2ClientService.Login] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:54 AM][QwickAnalyticsExcelAddIn.Services.QAServices.UserService.GetUser] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:54 AM][QwickAnalyticsExcelAddIn.Services.QAServices.NewStack.GetBank] Begin: Insurance #4255</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:54 AM][QwickAnalyticsExcelAddIn.Services.QAServices.NewStack.GetBankBranches] Begin: Insurance #4255</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.QAServices.NewStack.GetBankBranches] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.QAServices.NewStack.GetBank] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.QAServices.UserService.GetUser] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.UserService.Login] Successful login</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.UserService.Login] Server selected: Live</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.UserService.Login] Name: Nelson Sproul</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.UserService.Login] Authtoken: 7cbe58a9-81fb-4514-b78d-1c51d5ade362</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.UserService.Login] Referrer : https://liveweb11.qwickrate.com/</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetWorkbookID] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetWorkbookID] End: fcdb434d-5cae-4b28-b3d7-41dde55bd4ca</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.ThisAddIn.HasSheetID] Begin: Sheet1</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.ThisAddIn.HasSheetID] End: true</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetDataTableFromSettings] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetSettingsWorksheet] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetSettingsWorksheet] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetDataTableFromSettings] [{"WorksheetID":"2f3b953c-3490-40ce-8612-ecce3bb0a30f","WorkbookName":"z.xlsx","RSSDIDColumn":"C","CompanyTypeColumn":"B","FieldNameRow":"1","FieldTypeRow":"3","DDIDRow":"2","PeriodRow":"4","DurationRow":"5","DataRowFrom":6,"DataRowTo":7,"DataColFrom":1,"DataColTo":12,"PivotDataDisplay":0,"RSSDIDRow":null,"CompanyNameRow":null,"CompanyTypeRow":null,"FieldNameColumn":null,"DDIDColumn":null,"FieldTypeColumn":null}]</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetDataTableFromSettings] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.QAServices.NewStack.GetYearAndQuarterDates] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.QAServices.NewStack.GetDates] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.QAServices.NewStack.GetDates] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.QAServices.NewStack.getAsOfDateYears] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.QAServices.NewStack.getAsOfDateYears] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.QAServices.NewStack.getAsOfDateQuarters] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.QAServices.NewStack.getAsOfDateQuarters] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.QAServices.NewStack.GetYearAndQuarterDates] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.TemplateService.GetAllQATemplates] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.QAServices.QATemplates.GetQATemplates] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.QAServices.QATemplates.GetQATemplates] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.TemplateService.GetAllQATemplates] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.QAServices.NewStack.GetExcelAddInVersion] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.QAServices.NewStack.GetExcelAddInVersion] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:06:55 AM][QwickAnalyticsExcelAddIn.Services.UserService.Login] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:02 AM][QwickAnalyticsExcelAddIn.Ribbon1.btnRefresh_Click] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:02 AM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastCol] Begin: Sheet1</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:02 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetActiveDataTable] Begin: Sheet1</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:02 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetActiveDataTable] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:02 AM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastCol] End: 10</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:02 AM][QwickAnalyticsExcelAddIn.Services.DataDisplayService.RefreshWorksheet] Begin: Sheet1</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:02 AM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastRow] Begin: Sheet1</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:03 AM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastRow] End: 7</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:03 AM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastCol] Begin: Sheet1</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:03 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetActiveDataTable] Begin: Sheet1</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:03 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetActiveDataTable] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:03 AM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastCol] End: 10</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:03 AM][QwickAnalyticsExcelAddIn.Services.DataDisplayService.GetWorksheetCompanies] Begin: Sheet1</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:03 AM][QwickAnalyticsExcelAddIn.Services.DataDisplayService.GetWorksheetCompanies] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:03 AM][QwickAnalyticsExcelAddIn.Services.DataDisplayService.GetWorksheetFields] Begin: Sheet1</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:03 AM][QwickAnalyticsExcelAddIn.Services.QAServices.BankFieldService.GetBankFields] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:03 AM][QwickAnalyticsExcelAddIn.Services.QAServices.BankFieldService.GetBankFields] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:03 AM][QwickAnalyticsExcelAddIn.Services.QAServices.BHCFieldService.GetBHCFields] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:03 AM][QwickAnalyticsExcelAddIn.Services.QAServices.BHCFieldService.GetBHCFields] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:03 AM][QwickAnalyticsExcelAddIn.Services.QAServices.NewStack.GetSelectableFields] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:04 AM][QwickAnalyticsExcelAddIn.Services.QAServices.NewStack.GetSelectableFields] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:04 AM][QwickAnalyticsExcelAddIn.Services.QAServices.NewStack.GetSelectableFields] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:04 AM][QwickAnalyticsExcelAddIn.Services.DataDisplayService.GetPublicDataDictionaryItems] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:04 AM][QwickAnalyticsExcelAddIn.Services.DataDisplayService.GetPublicDataDictionaryItems] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:04 AM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastRow] Begin: Sheet1</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:04 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetActiveDataTable] Begin: Sheet1</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:04 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetActiveDataTable] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:05 AM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastRow] End: 7</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:05 AM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastCol] Begin: Sheet1</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:05 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetActiveDataTable] Begin: Sheet1</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:05 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetActiveDataTable] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:05 AM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastCol] End: 10</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:05 AM][QwickAnalyticsExcelAddIn.ThisAddIn.UpdateDataTablesSettings] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:05 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetWorkbookID] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:05 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetWorkbookID] End: fcdb434d-5cae-4b28-b3d7-41dde55bd4ca</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:05 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetSettingsWorksheet] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:05 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetSettingsWorksheet] End</t>
+  </si>
+  <si>
+    <t>[{"WorksheetID":"2f3b953c-3490-40ce-8612-ecce3bb0a30f","WorkbookName":"z.xlsx","RSSDIDColumn":"C","CompanyTypeColumn":"B","FieldNameRow":"1","FieldTypeRow":"3","DDIDRow":"2","PeriodRow":"4","DurationRow":"5","DataRowFrom":6,"DataRowTo":7,"DataColFrom":1,"DataColTo":10,"PivotDataDisplay":0,"RSSDIDRow":null,"CompanyNameRow":null,"CompanyTypeRow":null,"FieldNameColumn":null,"DDIDColumn":null,"FieldTypeColumn":null}]</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:05 AM][QwickAnalyticsExcelAddIn.ThisAddIn.UpdateDataTablesSettings] End: [{"WorksheetID":"2f3b953c-3490-40ce-8612-ecce3bb0a30f","WorkbookName":"z.xlsx","RSSDIDColumn":"C","CompanyTypeColumn":"B","FieldNameRow":"1","FieldTypeRow":"3","DDIDRow":"2","PeriodRow":"4","DurationRow":"5","DataRowFrom":6,"DataRowTo":7,"DataColFrom":1,"DataColTo":10,"PivotDataDisplay":0,"RSSDIDRow":null,"CompanyNameRow":null,"CompanyTypeRow":null,"FieldNameColumn":null,"DDIDColumn":null,"FieldTypeColumn":null}]</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:05 AM][QwickAnalyticsExcelAddIn.Services.DataDisplayService.GetWorksheetFields] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:05 AM][QwickAnalyticsExcelAddIn.Services.QAServices.DataService.GetData (prelim)] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:05 AM][QwickAnalyticsExcelAddIn.Services.QAServices.NewStack.GetAddInData] Begin: {"dataProvider":"FFIEC","institutions":[601416,2867337],"fields":[{"dataDictionaryId":"1262","timePeriodType":"MONTH","period":"12/31/2024","periodType":"LTM","displayOrder":"1"},{"dataDictionaryId":"1262","timePeriodType":"MONTH","period":"12/31/2024","periodType":"MRQ","displayOrder":"2"},{"dataDictionaryId":"1262","timePeriodType":"MONTH","period":"09/30/2024","periodType":"MRQ","displayOrder":"3"}]}</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:06 AM][QwickAnalyticsExcelAddIn.Services.QAServices.NewStack.GetAddInData] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:06 AM][QwickAnalyticsExcelAddIn.Services.QAServices.DataService.GetData (prelim)] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:06 AM][QwickAnalyticsExcelAddIn.Services.DataDisplayService.WriteData] Begin: Sheet1</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:06 AM][QwickAnalyticsExcelAddIn.Services.DataDisplayService.GetPublicWorksheetFields] Begin: Sheet1</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:06 AM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastRow] Begin: Sheet1</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:06 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetActiveDataTable] Begin: Sheet1</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:06 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetActiveDataTable] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:07 AM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastRow] End: 7</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:07 AM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastCol] Begin: Sheet1</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:07 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetActiveDataTable] Begin: Sheet1</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:07 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetActiveDataTable] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:07 AM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastCol] End: 10</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:07 AM][QwickAnalyticsExcelAddIn.ThisAddIn.UpdateDataTablesSettings] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:07 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetWorkbookID] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:07 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetWorkbookID] End: fcdb434d-5cae-4b28-b3d7-41dde55bd4ca</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:07 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetSettingsWorksheet] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:07 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetSettingsWorksheet] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:07 AM][QwickAnalyticsExcelAddIn.ThisAddIn.UpdateDataTablesSettings] End: [{"WorksheetID":"2f3b953c-3490-40ce-8612-ecce3bb0a30f","WorkbookName":"z.xlsx","RSSDIDColumn":"C","CompanyTypeColumn":"B","FieldNameRow":"1","FieldTypeRow":"3","DDIDRow":"2","PeriodRow":"4","DurationRow":"5","DataRowFrom":6,"DataRowTo":7,"DataColFrom":1,"DataColTo":10,"PivotDataDisplay":0,"RSSDIDRow":null,"CompanyNameRow":null,"CompanyTypeRow":null,"FieldNameColumn":null,"DDIDColumn":null,"FieldTypeColumn":null}]</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:07 AM][QwickAnalyticsExcelAddIn.Services.DataDisplayService.GetPublicWorksheetFields] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:07 AM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastRow] Begin: Sheet1</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:08 AM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastRow] End: 7</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:08 AM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastCol] Begin: Sheet1</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:08 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetActiveDataTable] Begin: Sheet1</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:08 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetActiveDataTable] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:08 AM][QwickAnalyticsExcelAddIn.ThisAddIn.FindLastCol] End: 10</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:08 AM][QwickAnalyticsExcelAddIn.ThisAddIn.UpdateDataTablesSettings] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:08 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetWorkbookID] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:08 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetWorkbookID] End: fcdb434d-5cae-4b28-b3d7-41dde55bd4ca</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:08 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetSettingsWorksheet] Begin</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:08 AM][QwickAnalyticsExcelAddIn.ThisAddIn.GetSettingsWorksheet] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:08 AM][QwickAnalyticsExcelAddIn.ThisAddIn.UpdateDataTablesSettings] End: [{"WorksheetID":"2f3b953c-3490-40ce-8612-ecce3bb0a30f","WorkbookName":"z.xlsx","RSSDIDColumn":"C","CompanyTypeColumn":"B","FieldNameRow":"1","FieldTypeRow":"3","DDIDRow":"2","PeriodRow":"4","DurationRow":"5","DataRowFrom":6,"DataRowTo":7,"DataColFrom":1,"DataColTo":10,"PivotDataDisplay":0,"RSSDIDRow":null,"CompanyNameRow":null,"CompanyTypeRow":null,"FieldNameColumn":null,"DDIDColumn":null,"FieldTypeColumn":null}]</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:08 AM][QwickAnalyticsExcelAddIn.Services.DataDisplayService.WriteData] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:08 AM][QwickAnalyticsExcelAddIn.Services.DataDisplayService.RefreshWorksheet] End</t>
+  </si>
+  <si>
+    <t>[9/4/2025 10:07:08 AM][QwickAnalyticsExcelAddIn.Ribbon1.btnRefresh_Click] End</t>
   </si>
 </sst>
 </file>
@@ -6377,7 +6701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -6400,12 +6724,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -6751,7 +7070,7 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1334</v>
+        <v>2157</v>
       </c>
     </row>
   </sheetData>
@@ -6761,10 +7080,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8F8C35-2672-4A24-8562-2B1EB761E0A2}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6776,11 +7095,10 @@
     <col min="5" max="5" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -6802,17 +7120,17 @@
       <c r="G1" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="H1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" t="s">
+        <v>355</v>
+      </c>
       <c r="J1" t="s">
         <v>355</v>
       </c>
-      <c r="K1" t="s">
-        <v>355</v>
-      </c>
-      <c r="L1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
@@ -6825,22 +7143,16 @@
         <v>94</v>
       </c>
       <c r="H2">
-        <v>4295</v>
+        <v>1262</v>
       </c>
       <c r="I2">
-        <v>4294</v>
+        <v>1262</v>
       </c>
       <c r="J2">
         <v>1262</v>
       </c>
-      <c r="K2">
-        <v>1262</v>
-      </c>
-      <c r="L2">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -6859,14 +7171,8 @@
       <c r="J3" t="s">
         <v>108</v>
       </c>
-      <c r="K3" t="s">
-        <v>108</v>
-      </c>
-      <c r="L3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>86</v>
       </c>
@@ -6879,22 +7185,16 @@
         <v>96</v>
       </c>
       <c r="H4" s="11">
-        <v>45838</v>
+        <v>45657</v>
       </c>
       <c r="I4" s="11">
-        <v>45838</v>
+        <v>45657</v>
       </c>
       <c r="J4" s="11">
-        <v>45657</v>
-      </c>
-      <c r="K4" s="11">
-        <v>45657</v>
-      </c>
-      <c r="L4" s="11">
         <v>45565</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>87</v>
       </c>
@@ -6906,23 +7206,17 @@
       <c r="G5" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -6944,17 +7238,17 @@
       <c r="G6" s="9">
         <v>6105894</v>
       </c>
+      <c r="H6" s="9">
+        <v>-22988</v>
+      </c>
+      <c r="I6" s="9">
+        <v>-26067</v>
+      </c>
       <c r="J6" s="9">
-        <v>-22988</v>
-      </c>
-      <c r="K6" s="9">
-        <v>-26067</v>
-      </c>
-      <c r="L6" s="9">
         <v>1335</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -6976,16 +7270,13 @@
       <c r="G7" s="9">
         <v>4411742</v>
       </c>
-      <c r="H7" t="s">
-        <v>943</v>
+      <c r="H7" s="9">
+        <v>21162</v>
+      </c>
+      <c r="I7" s="9">
+        <v>6562</v>
       </c>
       <c r="J7" s="9">
-        <v>21162</v>
-      </c>
-      <c r="K7" s="9">
-        <v>6562</v>
-      </c>
-      <c r="L7" s="9">
         <v>4820</v>
       </c>
     </row>
@@ -11873,6467 +12164,6820 @@
     </row>
     <row r="836" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B836" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="837" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C837" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="838" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C838" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="839" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C839" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="840" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D840" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="841" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D841" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="842" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C842" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="843" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B843" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="844" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B844" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="845" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C845" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="846" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C846" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="847" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C847" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="848" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D848" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="849" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D849" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="850" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C850" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="851" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C851" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="852" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D852" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="853" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D853" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="854" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C854" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="855" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C855" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="856" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D856" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="857" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D857" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="858" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D858" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="859" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D859" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="860" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C860" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="861" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C861" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="862" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C862" s="12" t="s">
         <v>965</v>
-      </c>
-    </row>
-    <row r="862" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C862" s="13" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="863" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B863" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="864" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B864" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C865" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C866" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C867" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C868" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B869" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B872" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B873" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B874" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C875" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D876" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D877" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C878" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B879" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B885" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B886" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B887" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B888" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B889" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C890" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C891" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C892" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C893" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B894" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B895" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B896" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C897" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C898" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C899" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C900" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C901" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C902" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B903" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B904" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B905" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B908" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B909" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B910" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C911" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C912" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="913" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B913" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="914" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B914" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="915" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C915" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="916" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C916" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="917" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B917" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="918" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B918" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="919" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C919" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="920" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C920" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="921" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C921" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="922" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C922" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="923" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C923" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="924" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C924" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="925" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C925" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="926" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C926" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="927" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C927" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="928" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C928" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="929" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C929" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="930" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C930" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="931" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C931" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="932" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C932" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="933" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C933" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="934" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D934" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="935" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D935" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="936" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C936" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="937" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C937" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="938" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C938" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="939" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B939" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="940" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B940" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="941" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C941" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="942" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C942" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="943" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B943" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="944" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B944" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="945" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C945" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="946" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C946" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="947" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C947" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="948" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C948" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="949" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C949" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="950" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C950" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="951" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B951" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="952" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B952" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="953" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C953" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="954" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C954" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="955" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C955" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="956" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C956" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="957" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C957" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="958" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C958" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="959" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B959" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="960" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B960" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="961" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C961" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="962" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C962" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="963" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C963" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="964" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C964" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="965" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C965" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="966" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C966" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="967" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B967" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="968" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B968" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="969" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C969" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="970" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C970" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="971" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C971" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="972" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C972" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="973" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C973" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="974" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C974" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="975" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B975" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="976" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B976" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="977" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B977" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="978" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B978" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="979" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C979" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="980" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C980" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="981" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C981" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="982" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C982" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="983" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C983" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="984" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C984" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="985" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C985" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="986" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C986" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="987" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C987" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="988" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C988" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="989" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B989" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="990" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B990" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="991" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B991" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="992" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B992" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="993" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C993" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="994" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C994" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="995" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B995" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="996" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B996" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="997" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B997" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="998" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B998" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="999" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C999" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1000" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C1000" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1001" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C1001" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1002" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C1002" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1003" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C1003" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1004" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C1004" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1005" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C1005" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1006" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C1006" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1007" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C1007" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1008" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C1008" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1009" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1009" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1010" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1010" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1011" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C1011" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1012" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C1012" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1013" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C1013" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1014" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C1014" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1015" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C1015" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1016" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C1016" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1017" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1017" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1018" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1018" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1019" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1019" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1020" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1020" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1021" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C1021" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1022" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C1022" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1023" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1023" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1024" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1024" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1025" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1026" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1027" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1028" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1029" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1030" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1031" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1032" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1033" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1034" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1035" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1036" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1037" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1038" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1039" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1042" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1043" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1044" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1045" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1046" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1047" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1049" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1050" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1050" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1051" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1052" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1053" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1053" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1054" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1054" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1055" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1055" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1056" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1057" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1058" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1058" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1059" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1059" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1060" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1060" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1061" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1062" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1062" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1063" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1064" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1065" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1066" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1067" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1067" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1068" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1068" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1069" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1070" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1071" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1072" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1073" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1074" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1074" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1075" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1075" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1076" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1076" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1077" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1077" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1078" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1078" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1079" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1079" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1080" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1081" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1082" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1082" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1083" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1083" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1084" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1085" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1085" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1086" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1086" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1087" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1088" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1089" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1090" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1090" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1091" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1091" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1092" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1092" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1093" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1093" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1094" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1094" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1095" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1095" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1096" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1098" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1098" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1099" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1099" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1100" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1101" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1102" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1103" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1106" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1107" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1108" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1109" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1110" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1111" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D1112" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D1113" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1114" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1115" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D1116" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D1117" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1118" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1119" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1120" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1121" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1121" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1122" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1122" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1123" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1123" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1124" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1124" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1125" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1125" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1126" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1126" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1127" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1127" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1128" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1128" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1129" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1129" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1130" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1130" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1131" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1131" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1132" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1132" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1133" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1133" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1134" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1134" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1135" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1135" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1136" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1136" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1137" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1137" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1138" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1138" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1139" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1139" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1140" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1140" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1141" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1141" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1142" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1142" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1143" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1143" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1144" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1144" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1145" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1145" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1146" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1146" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1147" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1147" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1148" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1148" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1149" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1149" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1150" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1150" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1151" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1151" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1152" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1152" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1153" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1153" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1154" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1154" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1155" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1155" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1156" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1156" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1157" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1157" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1158" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1158" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1159" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1159" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1160" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1160" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1161" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1161" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1162" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1162" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1163" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1163" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1164" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1164" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1165" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1165" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1166" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1166" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1167" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1167" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1168" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1168" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1169" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1170" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1171" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1172" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1173" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1174" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1175" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1176" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1177" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1178" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1179" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1180" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1181" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1182" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1183" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1186" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1187" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1188" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1189" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1190" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1191" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1192" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1193" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1194" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1195" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1196" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1197" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1198" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1199" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1201" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1202" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1203" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1204" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1205" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1206" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1207" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1209" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1210" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1211" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1212" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1213" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1214" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1215" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1216" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1217" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1218" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1219" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1220" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1221" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1222" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1223" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1224" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1226" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1227" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1228" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1229" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1230" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1231" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1234" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1235" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1236" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1237" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1238" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1239" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1240" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1241" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1242" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1243" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1244" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1245" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1246" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1247" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1248" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1249" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1250" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1251" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1252" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1253" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1254" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1255" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D1256" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D1257" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1258" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1259" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D1260" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D1261" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1262" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1263" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1264" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1265" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1265" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1266" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1266" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1267" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1267" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1268" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1268" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1269" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1269" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1270" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1270" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1271" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1271" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1272" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1272" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1273" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1273" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1274" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1274" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1275" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1275" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1276" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1276" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1277" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1277" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1278" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1278" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1279" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1279" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1280" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1280" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1281" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1281" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1282" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1282" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1283" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1283" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="1284" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1284" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1285" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1285" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1286" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1286" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1287" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1287" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1288" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1288" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1289" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1289" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1290" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1290" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1291" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1291" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1292" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1292" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1293" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1293" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1294" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1294" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1295" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1295" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1296" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1296" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1297" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1297" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1298" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1298" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="1299" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1299" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="1300" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1300" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1301" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1301" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1302" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1302" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1303" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1303" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1304" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1304" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1305" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1305" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1306" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1306" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1307" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1307" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1308" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1308" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1309" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1309" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1310" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1310" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1311" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1311" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1312" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1312" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1313" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1314" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1315" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1316" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="1317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1317" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1318" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1319" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="1320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1320" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="1321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1321" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="1322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1322" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1323" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1324" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="1325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1325" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="1326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1326" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1327" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1328" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="1329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1329" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1330" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1331" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1332" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1333" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1334" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1335" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1336" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1337" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1338" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1339" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1340" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1341" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1342" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1343" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1344" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="1345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1345" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1346" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="1347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1347" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1348" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="1349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1349" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1350" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1351" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D1352" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D1353" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="1354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1354" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1355" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D1356" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D1357" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1358" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1359" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1360" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1361" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1361" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1362" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1362" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1363" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1363" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1364" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1364" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1365" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1365" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1366" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1366" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1367" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1367" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1368" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1368" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1369" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1369" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1370" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1370" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1371" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1371" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1372" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1372" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1373" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1373" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1374" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1374" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="1375" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1375" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1376" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1376" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1377" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1377" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1378" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1378" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1379" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1379" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1380" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1380" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1381" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1381" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="1382" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1382" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1383" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1383" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1384" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1384" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="1385" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1385" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1386" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1386" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1387" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1387" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="1388" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1388" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1389" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1389" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1390" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1390" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="1391" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1391" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1392" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D1392" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1393" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1393" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1394" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1394" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1395" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1395" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="1396" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1396" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="1397" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1397" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1398" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1398" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1399" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1399" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1400" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1400" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1401" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1401" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1402" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1402" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1403" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1403" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1404" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1404" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="1405" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1405" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1406" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1406" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1407" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1407" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1408" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1408" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1409" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1410" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1411" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1412" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1413" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1414" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1415" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1416" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1417" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1418" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1419" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1420" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1421" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1422" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1423" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1424" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1425" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1426" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1427" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1428" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1429" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D1429" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="1427" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1427" t="s">
+    <row r="1430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1430" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="1428" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C1428" t="s">
+    <row r="1431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1431" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="1429" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D1429" t="s">
+    <row r="1432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1432" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="1430" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D1430" t="s">
+    <row r="1433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1433" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="1431" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C1431" t="s">
+    <row r="1434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1434" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1435" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1436" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="1432" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C1432" t="s">
+    <row r="1437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1437" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="1433" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D1433" t="s">
+    <row r="1438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1438" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="1434" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E1434" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="1435" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E1435" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="1436" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D1436" t="s">
+    <row r="1439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1439" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="1437" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D1437" t="s">
+    <row r="1440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1440" t="s">
         <v>1468</v>
-      </c>
-    </row>
-    <row r="1438" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E1438" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="1439" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E1439" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="1440" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D1440" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="1441" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1441" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1442" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1442" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1443" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1443" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1444" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1444" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1445" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1445" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1446" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1446" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1447" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1447" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1448" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1448" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1449" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1449" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1450" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1450" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1451" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1451" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1452" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1452" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1453" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1453" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1454" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1454" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1455" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1455" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="1456" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1456" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1457" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1457" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1458" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1458" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1459" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1459" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="1460" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1460" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="1461" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1461" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1462" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1462" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="1463" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1463" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="1464" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1464" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="1465" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1465" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1466" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1466" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="1467" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1467" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="1468" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1468" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="1469" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1469" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1470" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1470" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="1471" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1471" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1472" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1472" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1473" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D1473" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1474" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E1474" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="1475" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F1475" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1476" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G1476" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="1477" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G1477" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1478" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F1478" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1479" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F1479" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1480" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G1480" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1481" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G1481" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1482" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F1482" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="1483" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F1483" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="1484" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G1484" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1485" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G1485" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="1486" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G1486" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1487" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G1487" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1488" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F1488" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1489" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1489" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1490" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1490" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="1491" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1491" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1492" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1492" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1493" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1493" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1494" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1494" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="1495" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1495" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="1496" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1496" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1497" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1497" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="1498" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1498" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="1499" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1499" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1500" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1500" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1501" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1501" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1502" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1502" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="1503" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1503" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="1504" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1504" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1505" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1505" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1506" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1506" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1507" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1507" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1508" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1508" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1509" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1509" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1510" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1510" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="1511" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1511" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1512" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1512" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1513" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1513" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1514" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1514" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1515" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1515" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1516" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1516" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1517" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1517" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="1518" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1518" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="1519" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1519" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1520" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1520" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="1521" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1521" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1522" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1522" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1523" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1523" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1524" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1524" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="1525" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1525" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1526" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1526" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1527" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1527" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="1528" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1528" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1529" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1529" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="1530" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1530" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="1531" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1531" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="1532" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1532" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1533" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1533" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1534" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1534" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1535" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1535" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1536" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1536" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1537" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1537" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1538" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1538" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1539" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1539" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1540" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1540" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1541" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D1541" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1542" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D1542" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1543" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1543" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1544" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1544" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1545" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D1545" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1546" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E1546" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1547" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E1547" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1548" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D1548" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1549" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D1549" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1550" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E1550" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1551" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E1551" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1552" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D1552" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1553" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1553" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1554" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1554" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1555" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1555" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="1556" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1556" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1557" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1557" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="1558" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1558" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1559" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1559" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1560" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1560" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1561" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1561" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="1562" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1562" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1563" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1563" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="1564" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1564" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1565" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1565" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1566" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1566" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1567" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1567" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1568" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1568" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="1569" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1569" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1570" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1570" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1571" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1571" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1572" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1572" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1573" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1573" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1574" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1574" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1575" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1575" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1576" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1576" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1577" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1577" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1578" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1578" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1579" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1579" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1580" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1580" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1581" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1581" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1582" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1582" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1583" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1583" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1584" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1584" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1585" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D1585" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1586" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E1586" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1587" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F1587" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1588" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G1588" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1589" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G1589" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1590" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F1590" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1591" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F1591" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1592" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G1592" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1593" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G1593" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1594" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F1594" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1595" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F1595" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1596" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G1596" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1597" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G1597" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1598" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G1598" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1599" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G1599" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1600" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F1600" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1601" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1601" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1602" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1602" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1603" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1603" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1604" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1604" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1605" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1605" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1606" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1606" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1607" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1607" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1608" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1608" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1609" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1609" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1610" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1610" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1611" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1611" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1612" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1612" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1613" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1613" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1614" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F1614" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1615" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E1615" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1616" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1616" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1617" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1618" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1619" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1620" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1621" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C1621" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="1617" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C1617" t="s">
+    <row r="1622" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1622" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D1622" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="1618" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1618" t="s">
+    <row r="1623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1623" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E1623" t="s">
         <v>1631</v>
       </c>
     </row>
-    <row r="1621" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C1621" t="s">
+    <row r="1624" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1624" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E1624" t="s">
         <v>1632</v>
       </c>
     </row>
-    <row r="1622" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D1622" t="s">
+    <row r="1625" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1625" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1626" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1627" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E1627" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="1623" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E1623" t="s">
+    <row r="1628" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1628" t="s">
+        <v>2090</v>
+      </c>
+      <c r="F1628" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1629" t="s">
+        <v>2091</v>
+      </c>
+      <c r="F1629" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1630" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E1630" t="s">
         <v>1634</v>
       </c>
     </row>
-    <row r="1624" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E1624" t="s">
+    <row r="1631" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1631" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E1631" t="s">
         <v>1635</v>
       </c>
     </row>
-    <row r="1625" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D1625" t="s">
+    <row r="1632" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1632" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F1632" t="s">
         <v>1636</v>
       </c>
     </row>
-    <row r="1626" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D1626" t="s">
+    <row r="1633" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1633" t="s">
+        <v>2095</v>
+      </c>
+      <c r="F1633" t="s">
         <v>1637</v>
       </c>
     </row>
-    <row r="1627" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E1627" t="s">
+    <row r="1634" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1634" t="s">
+        <v>2096</v>
+      </c>
+      <c r="E1634" t="s">
         <v>1638</v>
       </c>
     </row>
-    <row r="1628" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F1628" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="1629" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F1629" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="1630" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E1630" t="s">
+    <row r="1635" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1635" t="s">
+        <v>2097</v>
+      </c>
+      <c r="E1635" t="s">
         <v>1639</v>
       </c>
     </row>
-    <row r="1631" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E1631" t="s">
+    <row r="1636" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1636" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E1636" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="1632" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F1632" t="s">
+    <row r="1637" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1637" t="s">
+        <v>2099</v>
+      </c>
+      <c r="E1637" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="1633" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1633" t="s">
+    <row r="1638" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1638" t="s">
+        <v>2100</v>
+      </c>
+      <c r="F1638" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="1634" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E1634" t="s">
+    <row r="1639" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1639" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F1639" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="1635" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E1635" t="s">
+    <row r="1640" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1640" t="s">
+        <v>2097</v>
+      </c>
+      <c r="F1640" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="1636" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E1636" t="s">
+    <row r="1641" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1641" t="s">
+        <v>2101</v>
+      </c>
+      <c r="F1641" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="1637" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E1637" t="s">
+    <row r="1642" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1642" t="s">
+        <v>2102</v>
+      </c>
+      <c r="F1642" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="1638" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1638" t="s">
+    <row r="1643" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1643" t="s">
+        <v>2103</v>
+      </c>
+      <c r="F1643" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="1639" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1639" t="s">
+    <row r="1644" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1644" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F1644" t="s">
         <v>1648</v>
       </c>
     </row>
-    <row r="1640" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1640" t="s">
+    <row r="1645" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1645" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F1645" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1646" t="s">
+        <v>2106</v>
+      </c>
+      <c r="F1646" t="s">
         <v>1649</v>
       </c>
     </row>
-    <row r="1641" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1641" t="s">
+    <row r="1647" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1647" t="s">
+        <v>2107</v>
+      </c>
+      <c r="F1647" t="s">
         <v>1650</v>
       </c>
     </row>
-    <row r="1642" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1642" t="s">
+    <row r="1648" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1648" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F1648" t="s">
         <v>1651</v>
       </c>
     </row>
-    <row r="1643" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1643" t="s">
+    <row r="1649" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1649" t="s">
+        <v>2109</v>
+      </c>
+      <c r="G1649" t="s">
         <v>1652</v>
       </c>
     </row>
-    <row r="1644" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1644" t="s">
+    <row r="1650" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1650" t="s">
+        <v>2110</v>
+      </c>
+      <c r="G1650" t="s">
         <v>1653</v>
       </c>
     </row>
-    <row r="1645" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1645" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="1646" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1646" t="s">
+    <row r="1651" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1651" t="s">
+        <v>2111</v>
+      </c>
+      <c r="F1651" t="s">
         <v>1654</v>
       </c>
     </row>
-    <row r="1647" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1647" t="s">
+    <row r="1652" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1652" t="s">
+        <v>2112</v>
+      </c>
+      <c r="F1652" t="s">
         <v>1655</v>
       </c>
     </row>
-    <row r="1648" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1648" t="s">
+    <row r="1653" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1653" t="s">
+        <v>2113</v>
+      </c>
+      <c r="G1653" t="s">
         <v>1656</v>
       </c>
     </row>
-    <row r="1649" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G1649" t="s">
+    <row r="1654" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1654" t="s">
+        <v>2114</v>
+      </c>
+      <c r="G1654" t="s">
         <v>1657</v>
       </c>
     </row>
-    <row r="1650" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G1650" t="s">
+    <row r="1655" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1655" t="s">
+        <v>2115</v>
+      </c>
+      <c r="F1655" t="s">
         <v>1658</v>
       </c>
     </row>
-    <row r="1651" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F1651" t="s">
+    <row r="1656" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1656" t="s">
+        <v>2116</v>
+      </c>
+      <c r="F1656" t="s">
         <v>1659</v>
       </c>
     </row>
-    <row r="1652" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F1652" t="s">
+    <row r="1657" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1657" t="s">
+        <v>2117</v>
+      </c>
+      <c r="G1657" t="s">
         <v>1660</v>
       </c>
     </row>
-    <row r="1653" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G1653" t="s">
+    <row r="1658" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1658" t="s">
+        <v>2118</v>
+      </c>
+      <c r="G1658" t="s">
         <v>1661</v>
       </c>
     </row>
-    <row r="1654" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G1654" t="s">
+    <row r="1659" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1659" t="s">
+        <v>2119</v>
+      </c>
+      <c r="G1659" t="s">
         <v>1662</v>
       </c>
     </row>
-    <row r="1655" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F1655" t="s">
+    <row r="1660" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1660" t="s">
+        <v>2120</v>
+      </c>
+      <c r="G1660" t="s">
         <v>1663</v>
       </c>
     </row>
-    <row r="1656" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F1656" t="s">
+    <row r="1661" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1661" t="s">
+        <v>2121</v>
+      </c>
+      <c r="F1661" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="1657" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G1657" t="s">
+    <row r="1662" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1662" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E1662" t="s">
         <v>1665</v>
       </c>
     </row>
-    <row r="1658" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G1658" t="s">
+    <row r="1663" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1663" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E1663" t="s">
         <v>1666</v>
       </c>
     </row>
-    <row r="1659" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G1659" t="s">
+    <row r="1664" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1664" t="s">
+        <v>2124</v>
+      </c>
+      <c r="F1664" t="s">
         <v>1667</v>
       </c>
     </row>
-    <row r="1660" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G1660" t="s">
+    <row r="1665" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1665" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F1665" t="s">
         <v>1668</v>
       </c>
     </row>
-    <row r="1661" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F1661" t="s">
+    <row r="1666" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C1666" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E1666" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="1662" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E1662" t="s">
+    <row r="1667" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D1667" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E1667" t="s">
         <v>1670</v>
       </c>
     </row>
-    <row r="1663" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E1663" t="s">
+    <row r="1668" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D1668" t="s">
+        <v>2123</v>
+      </c>
+      <c r="F1668" t="s">
         <v>1671</v>
       </c>
     </row>
-    <row r="1664" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F1664" t="s">
+    <row r="1669" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C1669" t="s">
+        <v>2127</v>
+      </c>
+      <c r="G1669" t="s">
         <v>1672</v>
       </c>
     </row>
-    <row r="1665" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="F1665" t="s">
+    <row r="1670" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C1670" t="s">
+        <v>2128</v>
+      </c>
+      <c r="H1670" t="s">
         <v>1673</v>
       </c>
     </row>
-    <row r="1666" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E1666" t="s">
+    <row r="1671" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D1671" t="s">
+        <v>2129</v>
+      </c>
+      <c r="H1671" t="s">
         <v>1674</v>
       </c>
     </row>
-    <row r="1667" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E1667" t="s">
+    <row r="1672" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D1672" t="s">
+        <v>2130</v>
+      </c>
+      <c r="G1672" t="s">
         <v>1675</v>
       </c>
     </row>
-    <row r="1668" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="F1668" t="s">
+    <row r="1673" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C1673" t="s">
+        <v>2131</v>
+      </c>
+      <c r="G1673" t="s">
         <v>1676</v>
       </c>
     </row>
-    <row r="1669" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G1669" t="s">
+    <row r="1674" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C1674" t="s">
+        <v>2132</v>
+      </c>
+      <c r="H1674" t="s">
         <v>1677</v>
       </c>
     </row>
-    <row r="1670" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H1670" t="s">
+    <row r="1675" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C1675" t="s">
+        <v>2133</v>
+      </c>
+      <c r="H1675" t="s">
         <v>1678</v>
       </c>
     </row>
-    <row r="1671" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H1671" t="s">
+    <row r="1676" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C1676" t="s">
+        <v>2134</v>
+      </c>
+      <c r="G1676" t="s">
         <v>1679</v>
       </c>
     </row>
-    <row r="1672" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G1672" t="s">
+    <row r="1677" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D1677" t="s">
+        <v>2135</v>
+      </c>
+      <c r="G1677" t="s">
         <v>1680</v>
       </c>
     </row>
-    <row r="1673" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G1673" t="s">
+    <row r="1678" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D1678" t="s">
+        <v>2136</v>
+      </c>
+      <c r="H1678" t="s">
         <v>1681</v>
       </c>
     </row>
-    <row r="1674" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H1674" t="s">
+    <row r="1679" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D1679" t="s">
+        <v>2137</v>
+      </c>
+      <c r="H1679" t="s">
         <v>1682</v>
       </c>
     </row>
-    <row r="1675" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H1675" t="s">
+    <row r="1680" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D1680" t="s">
+        <v>2138</v>
+      </c>
+      <c r="H1680" t="s">
         <v>1683</v>
       </c>
     </row>
-    <row r="1676" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G1676" t="s">
+    <row r="1681" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D1681" t="s">
+        <v>2139</v>
+      </c>
+      <c r="H1681" t="s">
         <v>1684</v>
       </c>
     </row>
-    <row r="1677" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G1677" t="s">
+    <row r="1682" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D1682" t="s">
+        <v>2140</v>
+      </c>
+      <c r="G1682" t="s">
         <v>1685</v>
       </c>
     </row>
-    <row r="1678" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H1678" t="s">
+    <row r="1683" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D1683" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F1683" t="s">
         <v>1686</v>
       </c>
     </row>
-    <row r="1679" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H1679" t="s">
+    <row r="1684" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D1684" t="s">
+        <v>2140</v>
+      </c>
+      <c r="F1684" t="s">
         <v>1687</v>
       </c>
     </row>
-    <row r="1680" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H1680" t="s">
+    <row r="1685" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D1685" t="s">
+        <v>2142</v>
+      </c>
+      <c r="G1685" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="1686" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D1686" t="s">
+        <v>2143</v>
+      </c>
+      <c r="G1686" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1687" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D1687" t="s">
+        <v>2144</v>
+      </c>
+      <c r="F1687" t="s">
         <v>1688</v>
       </c>
     </row>
-    <row r="1681" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H1681" t="s">
+    <row r="1688" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E1688" t="s">
+        <v>2145</v>
+      </c>
+      <c r="F1688" t="s">
         <v>1689</v>
       </c>
     </row>
-    <row r="1682" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G1682" t="s">
+    <row r="1689" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E1689" t="s">
+        <v>2146</v>
+      </c>
+      <c r="G1689" t="s">
         <v>1690</v>
       </c>
     </row>
-    <row r="1683" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F1683" t="s">
+    <row r="1690" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D1690" t="s">
+        <v>2147</v>
+      </c>
+      <c r="G1690" t="s">
         <v>1691</v>
       </c>
     </row>
-    <row r="1684" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F1684" t="s">
+    <row r="1691" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D1691" t="s">
+        <v>2148</v>
+      </c>
+      <c r="F1691" t="s">
         <v>1692</v>
       </c>
     </row>
-    <row r="1685" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G1685" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="1686" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G1686" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="1687" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F1687" t="s">
+    <row r="1692" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E1692" t="s">
+        <v>2149</v>
+      </c>
+      <c r="F1692" t="s">
         <v>1693</v>
       </c>
     </row>
-    <row r="1688" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F1688" t="s">
+    <row r="1693" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E1693" t="s">
+        <v>2150</v>
+      </c>
+      <c r="G1693" t="s">
         <v>1694</v>
       </c>
     </row>
-    <row r="1689" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G1689" t="s">
+    <row r="1694" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D1694" t="s">
+        <v>2151</v>
+      </c>
+      <c r="G1694" t="s">
         <v>1695</v>
       </c>
     </row>
-    <row r="1690" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G1690" t="s">
+    <row r="1695" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D1695" t="s">
+        <v>2152</v>
+      </c>
+      <c r="G1695" t="s">
         <v>1696</v>
       </c>
     </row>
-    <row r="1691" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F1691" t="s">
+    <row r="1696" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E1696" t="s">
+        <v>2153</v>
+      </c>
+      <c r="G1696" t="s">
         <v>1697</v>
       </c>
     </row>
-    <row r="1692" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F1692" t="s">
+    <row r="1697" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E1697" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F1697" t="s">
         <v>1698</v>
-      </c>
-    </row>
-    <row r="1693" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G1693" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="1694" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G1694" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="1695" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G1695" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="1696" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G1696" t="s">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="1697" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F1697" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="1698" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E1698" t="s">
-        <v>1704</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1699" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1699" t="s">
-        <v>1705</v>
+        <v>1699</v>
+      </c>
+      <c r="E1699" t="s">
+        <v>2156</v>
       </c>
     </row>
     <row r="1700" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C1700" t="s">
-        <v>1706</v>
+        <v>1700</v>
+      </c>
+      <c r="D1700" t="s">
+        <v>2158</v>
       </c>
     </row>
     <row r="1701" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C1701" t="s">
-        <v>1707</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="1702" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1702" t="s">
+        <v>2160</v>
+      </c>
       <c r="D1702" t="s">
-        <v>1708</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1703" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1703" t="s">
-        <v>1709</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="1704" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1704" t="s">
-        <v>1710</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1705" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1705" t="s">
+        <v>2163</v>
+      </c>
       <c r="E1705" t="s">
-        <v>1708</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1706" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1706" t="s">
+        <v>2164</v>
+      </c>
       <c r="E1706" t="s">
-        <v>1709</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1707" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1707" t="s">
-        <v>1711</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="1708" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C1708" t="s">
-        <v>1712</v>
+        <v>1703</v>
+      </c>
+      <c r="E1708" t="s">
+        <v>2166</v>
       </c>
     </row>
     <row r="1709" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C1709" t="s">
-        <v>1713</v>
+        <v>1704</v>
+      </c>
+      <c r="F1709" t="s">
+        <v>2167</v>
       </c>
     </row>
     <row r="1710" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1710" t="s">
-        <v>1714</v>
+        <v>1705</v>
+      </c>
+      <c r="F1710" t="s">
+        <v>2168</v>
       </c>
     </row>
     <row r="1711" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1711" t="s">
-        <v>1715</v>
+        <v>1706</v>
+      </c>
+      <c r="E1711" t="s">
+        <v>2169</v>
       </c>
     </row>
     <row r="1712" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1712" t="s">
-        <v>1716</v>
+        <v>1707</v>
+      </c>
+      <c r="E1712" t="s">
+        <v>2170</v>
       </c>
     </row>
     <row r="1713" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E1713" t="s">
-        <v>1714</v>
+        <v>1705</v>
+      </c>
+      <c r="F1713" t="s">
+        <v>2171</v>
       </c>
     </row>
     <row r="1714" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E1714" t="s">
-        <v>1715</v>
+        <v>1706</v>
+      </c>
+      <c r="F1714" t="s">
+        <v>2172</v>
       </c>
     </row>
     <row r="1715" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1715" t="s">
-        <v>1717</v>
+        <v>1708</v>
+      </c>
+      <c r="E1715" t="s">
+        <v>2173</v>
       </c>
     </row>
     <row r="1716" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C1716" t="s">
-        <v>1718</v>
+        <v>1709</v>
+      </c>
+      <c r="E1716" t="s">
+        <v>2174</v>
       </c>
     </row>
     <row r="1717" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C1717" t="s">
-        <v>1719</v>
+        <v>1710</v>
+      </c>
+      <c r="F1717" t="s">
+        <v>2175</v>
       </c>
     </row>
     <row r="1718" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1718" t="s">
-        <v>1720</v>
+        <v>1711</v>
+      </c>
+      <c r="F1718" t="s">
+        <v>2176</v>
       </c>
     </row>
     <row r="1719" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E1719" t="s">
-        <v>1721</v>
+        <v>1712</v>
+      </c>
+      <c r="F1719" t="s">
+        <v>2177</v>
       </c>
     </row>
     <row r="1720" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E1720" t="s">
-        <v>1722</v>
+        <v>1713</v>
+      </c>
+      <c r="F1720" t="s">
+        <v>2178</v>
       </c>
     </row>
     <row r="1721" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1721" t="s">
-        <v>1723</v>
+        <v>1714</v>
+      </c>
+      <c r="E1721" t="s">
+        <v>2179</v>
       </c>
     </row>
     <row r="1722" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1722" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="1723" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1723" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E1723" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1724" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E1724" t="s">
+        <v>2171</v>
+      </c>
+      <c r="F1724" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="1725" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E1725" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F1725" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="1726" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1726" t="s">
+        <v>2182</v>
+      </c>
+      <c r="E1726" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="1727" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1727" t="s">
+        <v>2183</v>
+      </c>
+      <c r="E1727" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="1728" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E1728" t="s">
+        <v>2184</v>
+      </c>
+      <c r="F1728" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1729" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1729" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1730" t="s">
+        <v>2186</v>
+      </c>
+      <c r="E1730" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1731" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E1731" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1732" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1733" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1734" t="s">
+        <v>2190</v>
+      </c>
+      <c r="F1734" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1735" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F1735" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1736" t="s">
+        <v>2192</v>
+      </c>
+      <c r="F1736" t="s">
         <v>1724</v>
       </c>
     </row>
-    <row r="1723" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E1723" t="s">
+    <row r="1737" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1737" t="s">
+        <v>2193</v>
+      </c>
+      <c r="F1737" t="s">
         <v>1725</v>
       </c>
     </row>
-    <row r="1724" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F1724" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="1725" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F1725" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="1726" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E1726" t="s">
+    <row r="1738" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1738" t="s">
+        <v>2194</v>
+      </c>
+      <c r="F1738" t="s">
         <v>1726</v>
       </c>
     </row>
-    <row r="1727" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E1727" t="s">
+    <row r="1739" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1739" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F1739" t="s">
         <v>1727</v>
       </c>
     </row>
-    <row r="1728" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F1728" t="s">
+    <row r="1740" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1740" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1741" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1742" t="s">
         <v>1728</v>
       </c>
     </row>
-    <row r="1729" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1729" t="s">
+    <row r="1743" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1743" t="s">
         <v>1729</v>
       </c>
     </row>
-    <row r="1730" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E1730" t="s">
+    <row r="1744" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1744" t="s">
         <v>1730</v>
-      </c>
-    </row>
-    <row r="1731" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E1731" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="1732" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E1732" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="1733" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E1733" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="1734" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1734" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="1735" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1735" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="1736" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1736" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="1737" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1737" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="1738" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1738" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="1739" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1739" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="1740" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1740" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="1741" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1741" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="1742" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1742" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="1743" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1743" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="1744" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F1744" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="1745" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G1745" t="s">
-        <v>1743</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1746" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G1746" t="s">
-        <v>1744</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1747" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F1747" t="s">
-        <v>1745</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1748" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F1748" t="s">
-        <v>1746</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1749" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G1749" t="s">
-        <v>1747</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1750" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G1750" t="s">
-        <v>1748</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1751" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F1751" t="s">
-        <v>1749</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1752" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F1752" t="s">
-        <v>1750</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1753" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G1753" t="s">
-        <v>1751</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1754" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G1754" t="s">
-        <v>1752</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1755" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G1755" t="s">
-        <v>1753</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1756" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G1756" t="s">
-        <v>1754</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1757" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F1757" t="s">
-        <v>1755</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1758" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E1758" t="s">
-        <v>1756</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1759" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E1759" t="s">
-        <v>1757</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1760" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F1760" t="s">
-        <v>1758</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="1761" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F1761" t="s">
-        <v>1759</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1762" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E1762" t="s">
-        <v>1760</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1763" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E1763" t="s">
-        <v>1761</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1764" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F1764" t="s">
-        <v>1762</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1765" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G1765" t="s">
-        <v>1763</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1766" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H1766" t="s">
-        <v>1764</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1767" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H1767" t="s">
-        <v>1765</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1768" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G1768" t="s">
-        <v>1766</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1769" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G1769" t="s">
-        <v>1767</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="1770" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H1770" t="s">
-        <v>1768</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1771" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H1771" t="s">
-        <v>1769</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1772" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G1772" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1773" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G1773" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1774" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H1774" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1775" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H1775" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1776" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H1776" t="s">
-        <v>1774</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1777" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H1777" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1778" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G1778" t="s">
-        <v>1776</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1779" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F1779" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1780" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F1780" t="s">
-        <v>1778</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1781" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G1781" t="s">
-        <v>1768</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1782" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G1782" t="s">
-        <v>1769</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1783" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F1783" t="s">
-        <v>1779</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1784" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F1784" t="s">
-        <v>1780</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1785" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G1785" t="s">
-        <v>1781</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1786" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G1786" t="s">
-        <v>1782</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1787" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F1787" t="s">
-        <v>1783</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1788" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F1788" t="s">
-        <v>1784</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1789" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G1789" t="s">
-        <v>1785</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="1790" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G1790" t="s">
-        <v>1786</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1791" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G1791" t="s">
-        <v>1787</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1792" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G1792" t="s">
-        <v>1788</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1793" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F1793" t="s">
-        <v>1789</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1794" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E1794" t="s">
-        <v>1790</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1795" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1795" t="s">
-        <v>1791</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1796" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C1796" t="s">
-        <v>1792</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1797" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C1797" t="s">
-        <v>1793</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1798" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1798" t="s">
-        <v>1794</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1799" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1799" t="s">
-        <v>1795</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1800" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1800" t="s">
-        <v>1796</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1801" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E1801" t="s">
-        <v>1794</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1802" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E1802" t="s">
-        <v>1795</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1803" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1803" t="s">
-        <v>1797</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="1804" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C1804" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1805" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C1805" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1806" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1806" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="1807" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1807" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1808" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D1808" t="s">
-        <v>1802</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="1809" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E1809" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="1810" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E1810" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1811" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D1811" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1812" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C1812" t="s">
-        <v>1804</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1817" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E1817" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="1818" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F1818" t="s">
-        <v>1806</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="1819" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G1819" t="s">
-        <v>1807</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1820" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G1820" t="s">
-        <v>1808</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1821" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F1821" t="s">
-        <v>1809</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1822" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F1822" t="s">
-        <v>1810</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1823" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G1823" t="s">
-        <v>1811</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1824" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H1824" t="s">
-        <v>1807</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1825" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H1825" t="s">
-        <v>1808</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1826" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G1826" t="s">
-        <v>1812</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="1827" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G1827" t="s">
-        <v>1813</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1828" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H1828" t="s">
-        <v>1814</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1829" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H1829" t="s">
-        <v>1815</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1830" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G1830" t="s">
-        <v>1816</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1831" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G1831" t="s">
-        <v>1817</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1832" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G1832" t="s">
-        <v>1818</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1833" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G1833" t="s">
-        <v>1819</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1834" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H1834" t="s">
-        <v>1820</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1835" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H1835" t="s">
-        <v>1821</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1836" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H1836" t="s">
-        <v>1822</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1837" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H1837" t="s">
-        <v>1823</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1838" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H1838" t="s">
-        <v>1824</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1839" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H1839" t="s">
-        <v>1825</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1840" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H1840" t="s">
-        <v>1824</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1841" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1841" t="s">
-        <v>1826</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1842" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1842" t="s">
-        <v>1827</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1843" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1843" t="s">
-        <v>1828</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1844" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1844" t="s">
-        <v>1829</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1845" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I1845" t="s">
-        <v>1830</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1846" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I1846" t="s">
-        <v>1831</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1847" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1847" t="s">
-        <v>1832</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="1848" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1848" t="s">
-        <v>1833</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1849" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I1849" t="s">
-        <v>1834</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1850" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I1850" t="s">
-        <v>1835</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1851" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1851" t="s">
-        <v>1836</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1852" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1852" t="s">
-        <v>1837</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1853" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I1853" t="s">
-        <v>1838</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1854" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I1854" t="s">
-        <v>1839</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1855" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I1855" t="s">
-        <v>1840</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1856" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I1856" t="s">
-        <v>1841</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1857" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H1857" t="s">
-        <v>1842</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1858" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G1858" t="s">
-        <v>1843</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1859" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G1859" t="s">
-        <v>1844</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1860" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H1860" t="s">
-        <v>1845</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1861" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H1861" t="s">
-        <v>1846</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1862" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G1862" t="s">
-        <v>1847</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1863" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G1863" t="s">
-        <v>1848</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1864" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H1864" t="s">
-        <v>1849</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1865" spans="7:10" x14ac:dyDescent="0.25">
       <c r="I1865" t="s">
-        <v>1850</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1866" spans="7:10" x14ac:dyDescent="0.25">
       <c r="J1866" t="s">
-        <v>1851</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1867" spans="7:10" x14ac:dyDescent="0.25">
       <c r="J1867" t="s">
-        <v>1852</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1868" spans="7:10" x14ac:dyDescent="0.25">
       <c r="I1868" t="s">
-        <v>1853</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1869" spans="7:10" x14ac:dyDescent="0.25">
       <c r="I1869" t="s">
-        <v>1854</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1870" spans="7:10" x14ac:dyDescent="0.25">
       <c r="J1870" t="s">
-        <v>1855</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1871" spans="7:10" x14ac:dyDescent="0.25">
       <c r="J1871" t="s">
-        <v>1856</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1872" spans="7:10" x14ac:dyDescent="0.25">
       <c r="I1872" t="s">
-        <v>1857</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1873" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I1873" t="s">
-        <v>1858</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1874" spans="8:10" x14ac:dyDescent="0.25">
       <c r="J1874" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1875" spans="8:10" x14ac:dyDescent="0.25">
       <c r="J1875" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1876" spans="8:10" x14ac:dyDescent="0.25">
       <c r="J1876" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1877" spans="8:10" x14ac:dyDescent="0.25">
       <c r="J1877" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1878" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I1878" t="s">
-        <v>1863</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1879" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H1879" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1880" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H1880" t="s">
-        <v>1865</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1881" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I1881" t="s">
-        <v>1855</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1882" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I1882" t="s">
-        <v>1856</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1883" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H1883" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1884" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H1884" t="s">
-        <v>1867</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1885" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I1885" t="s">
-        <v>1868</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1886" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I1886" t="s">
-        <v>1869</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1887" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H1887" t="s">
-        <v>1870</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1888" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H1888" t="s">
-        <v>1871</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1889" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I1889" t="s">
-        <v>1872</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1890" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I1890" t="s">
-        <v>1873</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1891" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I1891" t="s">
-        <v>1874</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1892" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I1892" t="s">
-        <v>1875</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="1893" spans="5:9" x14ac:dyDescent="0.25">
       <c r="H1893" t="s">
-        <v>1876</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1894" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G1894" t="s">
-        <v>1877</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1895" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F1895" t="s">
-        <v>1878</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1896" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E1896" t="s">
-        <v>1879</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1897" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E1897" t="s">
-        <v>1880</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1898" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F1898" t="s">
-        <v>1881</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1899" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F1899" t="s">
-        <v>1882</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1900" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F1900" t="s">
-        <v>1883</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1901" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G1901" t="s">
-        <v>1881</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1902" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G1902" t="s">
-        <v>1882</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1903" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F1903" t="s">
-        <v>1884</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1904" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E1904" t="s">
-        <v>1885</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1905" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E1905" t="s">
-        <v>1886</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1906" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F1906" t="s">
-        <v>1887</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1907" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F1907" t="s">
-        <v>1888</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1908" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F1908" t="s">
-        <v>1889</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1909" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G1909" t="s">
-        <v>1887</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1910" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G1910" t="s">
-        <v>1888</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1911" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F1911" t="s">
-        <v>1890</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1912" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E1912" t="s">
-        <v>1891</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1915" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F1915" t="s">
-        <v>1892</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1916" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G1916" t="s">
-        <v>1893</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1917" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H1917" t="s">
-        <v>1894</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1918" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H1918" t="s">
-        <v>1895</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1919" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G1919" t="s">
-        <v>1896</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1920" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G1920" t="s">
-        <v>1897</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1921" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1921" t="s">
-        <v>1898</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1922" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I1922" t="s">
-        <v>1894</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1923" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I1923" t="s">
-        <v>1895</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1924" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1924" t="s">
-        <v>1899</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1925" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1925" t="s">
-        <v>1900</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1926" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I1926" t="s">
-        <v>1901</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1927" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I1927" t="s">
-        <v>1902</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1928" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1928" t="s">
-        <v>1903</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1929" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1929" t="s">
-        <v>1904</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1930" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1930" t="s">
-        <v>1905</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1931" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1931" t="s">
-        <v>1906</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1932" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I1932" t="s">
-        <v>1907</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1933" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I1933" t="s">
-        <v>1908</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1934" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I1934" t="s">
-        <v>1909</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1935" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I1935" t="s">
-        <v>1910</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1936" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I1936" t="s">
-        <v>1911</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1937" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I1937" t="s">
-        <v>1912</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1938" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I1938" t="s">
-        <v>1911</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1939" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I1939" t="s">
-        <v>1912</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1940" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I1940" t="s">
-        <v>1913</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1941" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I1941" t="s">
-        <v>1914</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1942" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I1942" t="s">
-        <v>1915</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1943" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J1943" t="s">
-        <v>1916</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1944" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J1944" t="s">
-        <v>1917</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1945" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I1945" t="s">
-        <v>1918</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1946" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I1946" t="s">
-        <v>1919</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1947" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J1947" t="s">
-        <v>1920</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1948" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J1948" t="s">
-        <v>1921</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1949" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I1949" t="s">
-        <v>1922</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1950" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I1950" t="s">
-        <v>1923</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1951" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J1951" t="s">
-        <v>1924</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1952" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J1952" t="s">
-        <v>1925</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1953" spans="8:11" x14ac:dyDescent="0.25">
       <c r="J1953" t="s">
-        <v>1926</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1954" spans="8:11" x14ac:dyDescent="0.25">
       <c r="J1954" t="s">
-        <v>1927</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1955" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I1955" t="s">
-        <v>1928</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1956" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H1956" t="s">
-        <v>1929</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1957" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H1957" t="s">
-        <v>1930</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1958" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I1958" t="s">
-        <v>1931</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1959" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I1959" t="s">
-        <v>1932</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1960" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H1960" t="s">
-        <v>1933</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1961" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H1961" t="s">
-        <v>1934</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1962" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I1962" t="s">
-        <v>1935</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1963" spans="8:11" x14ac:dyDescent="0.25">
       <c r="J1963" t="s">
-        <v>1936</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1964" spans="8:11" x14ac:dyDescent="0.25">
       <c r="K1964" t="s">
-        <v>1937</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1965" spans="8:11" x14ac:dyDescent="0.25">
       <c r="K1965" t="s">
-        <v>1938</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1966" spans="8:11" x14ac:dyDescent="0.25">
       <c r="J1966" t="s">
-        <v>1939</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1967" spans="8:11" x14ac:dyDescent="0.25">
       <c r="J1967" t="s">
-        <v>1940</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1968" spans="8:11" x14ac:dyDescent="0.25">
       <c r="K1968" t="s">
-        <v>1941</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1969" spans="9:11" x14ac:dyDescent="0.25">
       <c r="K1969" t="s">
-        <v>1942</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1970" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J1970" t="s">
-        <v>1943</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1971" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J1971" t="s">
-        <v>1944</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1972" spans="9:11" x14ac:dyDescent="0.25">
       <c r="K1972" t="s">
-        <v>1945</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1973" spans="9:11" x14ac:dyDescent="0.25">
       <c r="K1973" t="s">
-        <v>1946</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1974" spans="9:11" x14ac:dyDescent="0.25">
       <c r="K1974" t="s">
-        <v>1947</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1975" spans="9:11" x14ac:dyDescent="0.25">
       <c r="K1975" t="s">
-        <v>1948</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1976" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J1976" t="s">
-        <v>1949</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1977" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I1977" t="s">
-        <v>1950</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1978" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I1978" t="s">
-        <v>1951</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1979" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J1979" t="s">
-        <v>1941</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1980" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J1980" t="s">
-        <v>1942</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1981" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I1981" t="s">
-        <v>1952</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1982" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I1982" t="s">
-        <v>1953</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1983" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J1983" t="s">
-        <v>1954</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1984" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J1984" t="s">
-        <v>1955</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1985" spans="6:10" x14ac:dyDescent="0.25">
       <c r="I1985" t="s">
-        <v>1956</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1986" spans="6:10" x14ac:dyDescent="0.25">
       <c r="I1986" t="s">
-        <v>1957</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1987" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J1987" t="s">
-        <v>1958</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1988" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J1988" t="s">
-        <v>1959</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1989" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J1989" t="s">
-        <v>1960</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1990" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J1990" t="s">
-        <v>1961</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1991" spans="6:10" x14ac:dyDescent="0.25">
       <c r="I1991" t="s">
-        <v>1962</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1992" spans="6:10" x14ac:dyDescent="0.25">
       <c r="H1992" t="s">
-        <v>1963</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1993" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G1993" t="s">
-        <v>1964</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1994" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F1994" t="s">
-        <v>1965</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1995" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F1995" t="s">
-        <v>1966</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1996" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G1996" t="s">
-        <v>1967</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1997" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G1997" t="s">
-        <v>1968</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1998" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G1998" t="s">
-        <v>1969</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1999" spans="6:10" x14ac:dyDescent="0.25">
       <c r="H1999" t="s">
-        <v>1967</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="2000" spans="6:10" x14ac:dyDescent="0.25">
       <c r="H2000" t="s">
-        <v>1968</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="2001" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2001" t="s">
-        <v>1970</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="2002" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F2002" t="s">
-        <v>1971</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="2003" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F2003" t="s">
-        <v>1972</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="2004" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2004" t="s">
-        <v>1973</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="2005" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2005" t="s">
-        <v>1974</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="2006" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2006" t="s">
-        <v>1975</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="2007" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H2007" t="s">
-        <v>1973</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="2008" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H2008" t="s">
-        <v>1974</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="2009" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2009" t="s">
-        <v>1976</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="2010" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F2010" t="s">
-        <v>1977</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="2011" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F2011" t="s">
-        <v>1978</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="2012" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2012" t="s">
-        <v>1979</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="2013" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2013" t="s">
-        <v>1980</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="2014" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2014" t="s">
-        <v>1981</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="2015" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H2015" t="s">
-        <v>1979</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="2016" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H2016" t="s">
-        <v>1980</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="2017" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2017" t="s">
-        <v>1982</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="2018" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F2018" t="s">
-        <v>1983</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="2019" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F2019" t="s">
-        <v>1984</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="2020" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2020" t="s">
-        <v>1985</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="2021" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2021" t="s">
-        <v>1986</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="2022" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2022" t="s">
-        <v>1987</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="2023" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H2023" t="s">
-        <v>1985</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="2024" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H2024" t="s">
-        <v>1986</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="2025" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2025" t="s">
-        <v>1988</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="2026" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F2026" t="s">
-        <v>1989</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="2027" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F2027" t="s">
-        <v>1990</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="2028" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2028" t="s">
-        <v>1991</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="2029" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2029" t="s">
-        <v>1992</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="2030" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2030" t="s">
-        <v>1993</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="2031" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H2031" t="s">
-        <v>1991</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="2032" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H2032" t="s">
-        <v>1992</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="2033" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2033" t="s">
-        <v>1994</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="2034" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F2034" t="s">
-        <v>1995</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="2035" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F2035" t="s">
-        <v>1996</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="2036" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2036" t="s">
-        <v>1997</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="2037" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2037" t="s">
-        <v>1998</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="2038" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2038" t="s">
-        <v>1999</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="2039" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H2039" t="s">
-        <v>1997</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="2040" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H2040" t="s">
-        <v>1998</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="2041" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2041" t="s">
-        <v>2000</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="2042" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F2042" t="s">
-        <v>2001</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="2043" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F2043" t="s">
-        <v>2002</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="2044" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2044" t="s">
-        <v>2003</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="2045" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2045" t="s">
-        <v>2004</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="2046" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2046" t="s">
-        <v>2005</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="2047" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H2047" t="s">
-        <v>2003</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="2048" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H2048" t="s">
-        <v>2004</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="2049" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2049" t="s">
-        <v>2006</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="2050" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F2050" t="s">
-        <v>2007</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="2051" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F2051" t="s">
-        <v>2008</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="2052" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2052" t="s">
-        <v>2009</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="2053" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2053" t="s">
-        <v>2010</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="2054" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2054" t="s">
-        <v>2011</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="2055" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H2055" t="s">
-        <v>2009</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="2056" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H2056" t="s">
-        <v>2010</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="2057" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2057" t="s">
-        <v>2012</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="2058" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F2058" t="s">
-        <v>2013</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="2059" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F2059" t="s">
-        <v>2014</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="2060" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2060" t="s">
-        <v>2015</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="2061" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H2061" t="s">
-        <v>2016</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="2062" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H2062" t="s">
-        <v>2017</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="2063" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2063" t="s">
-        <v>2018</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="2064" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G2064" t="s">
-        <v>2019</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="2065" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H2065" t="s">
-        <v>2020</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="2066" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I2066" t="s">
-        <v>2016</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="2067" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I2067" t="s">
-        <v>2017</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="2068" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H2068" t="s">
-        <v>2021</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="2069" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H2069" t="s">
-        <v>2022</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="2070" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I2070" t="s">
-        <v>2023</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="2071" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I2071" t="s">
-        <v>2024</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="2072" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H2072" t="s">
-        <v>2025</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="2073" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H2073" t="s">
-        <v>2026</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="2074" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H2074" t="s">
-        <v>2027</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="2075" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H2075" t="s">
-        <v>2028</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="2076" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I2076" t="s">
-        <v>2029</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="2077" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I2077" t="s">
-        <v>2030</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="2078" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I2078" t="s">
-        <v>2031</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2079" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I2079" t="s">
-        <v>2032</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2080" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I2080" t="s">
-        <v>2033</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2081" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I2081" t="s">
-        <v>2034</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="2082" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I2082" t="s">
-        <v>2033</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2083" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I2083" t="s">
-        <v>2034</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="2084" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I2084" t="s">
-        <v>2035</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2085" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I2085" t="s">
-        <v>2036</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2086" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I2086" t="s">
-        <v>2037</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="2087" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J2087" t="s">
-        <v>2038</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="2088" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J2088" t="s">
-        <v>2039</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="2089" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I2089" t="s">
-        <v>2040</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="2090" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I2090" t="s">
-        <v>2041</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="2091" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J2091" t="s">
-        <v>2042</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="2092" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J2092" t="s">
-        <v>2043</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="2093" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I2093" t="s">
-        <v>2044</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="2094" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I2094" t="s">
-        <v>2045</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="2095" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J2095" t="s">
-        <v>2046</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="2096" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J2096" t="s">
-        <v>2047</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="2097" spans="8:11" x14ac:dyDescent="0.25">
       <c r="J2097" t="s">
-        <v>2048</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="2098" spans="8:11" x14ac:dyDescent="0.25">
       <c r="J2098" t="s">
-        <v>2049</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="2099" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I2099" t="s">
-        <v>2050</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="2100" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H2100" t="s">
-        <v>2051</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="2101" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H2101" t="s">
-        <v>2052</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2102" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I2102" t="s">
-        <v>2053</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="2103" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I2103" t="s">
-        <v>2054</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="2104" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H2104" t="s">
-        <v>2055</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="2105" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H2105" t="s">
-        <v>2056</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="2106" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I2106" t="s">
-        <v>2057</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="2107" spans="8:11" x14ac:dyDescent="0.25">
       <c r="J2107" t="s">
-        <v>2058</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="2108" spans="8:11" x14ac:dyDescent="0.25">
       <c r="K2108" t="s">
-        <v>2059</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="2109" spans="8:11" x14ac:dyDescent="0.25">
       <c r="K2109" t="s">
-        <v>2060</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="2110" spans="8:11" x14ac:dyDescent="0.25">
       <c r="J2110" t="s">
-        <v>2061</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="2111" spans="8:11" x14ac:dyDescent="0.25">
       <c r="J2111" t="s">
-        <v>2062</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="2112" spans="8:11" x14ac:dyDescent="0.25">
       <c r="K2112" t="s">
-        <v>2063</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="2113" spans="9:11" x14ac:dyDescent="0.25">
       <c r="K2113" t="s">
-        <v>2064</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="2114" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J2114" t="s">
-        <v>2065</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="2115" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J2115" t="s">
-        <v>2066</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="2116" spans="9:11" x14ac:dyDescent="0.25">
       <c r="K2116" t="s">
-        <v>2067</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="2117" spans="9:11" x14ac:dyDescent="0.25">
       <c r="K2117" t="s">
-        <v>2068</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="2118" spans="9:11" x14ac:dyDescent="0.25">
       <c r="K2118" t="s">
-        <v>2069</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="2119" spans="9:11" x14ac:dyDescent="0.25">
       <c r="K2119" t="s">
-        <v>2070</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="2120" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J2120" t="s">
-        <v>2071</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="2121" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I2121" t="s">
-        <v>2072</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="2122" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I2122" t="s">
-        <v>2073</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="2123" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J2123" t="s">
-        <v>2063</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="2124" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J2124" t="s">
-        <v>2064</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="2125" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I2125" t="s">
-        <v>2074</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="2126" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I2126" t="s">
-        <v>2075</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="2127" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J2127" t="s">
-        <v>2076</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="2128" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J2128" t="s">
-        <v>2077</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="2129" spans="6:10" x14ac:dyDescent="0.25">
       <c r="I2129" t="s">
-        <v>2078</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="2130" spans="6:10" x14ac:dyDescent="0.25">
       <c r="I2130" t="s">
-        <v>2079</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="2131" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J2131" t="s">
-        <v>2080</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="2132" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J2132" t="s">
-        <v>2081</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="2133" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J2133" t="s">
-        <v>2082</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="2134" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J2134" t="s">
-        <v>2083</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="2135" spans="6:10" x14ac:dyDescent="0.25">
       <c r="I2135" t="s">
-        <v>2084</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="2136" spans="6:10" x14ac:dyDescent="0.25">
       <c r="H2136" t="s">
-        <v>2085</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="2137" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G2137" t="s">
-        <v>2086</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="2138" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F2138" t="s">
-        <v>2087</v>
+        <v>2075</v>
       </c>
     </row>
   </sheetData>
